--- a/PSM_Baseline_2009/matched_pairs_details.xlsx
+++ b/PSM_Baseline_2009/matched_pairs_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,17 +812,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>绍兴市</t>
+          <t>长春市</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0.7308277005530155</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7325171811805359</v>
+        <v>0.7143904623122111</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00168948062752039</v>
+        <v>0.01643723824080434</v>
       </c>
     </row>
     <row r="17">
@@ -956,17 +956,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>益阳市</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0.2797557210005925</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2801259970639683</v>
+        <v>0.2815275908003598</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0003702760633758073</v>
+        <v>0.001771869799767345</v>
       </c>
     </row>
     <row r="23">
@@ -1052,17 +1052,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>哈尔滨市</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0.6586061681786389</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6677516424083473</v>
+        <v>0.6788557948544641</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00914547422970835</v>
+        <v>0.02024962667582519</v>
       </c>
     </row>
     <row r="27">
@@ -1071,22 +1071,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>大连市</t>
+          <t>孝感市</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>钦州市</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.7139618770194672</v>
+        <v>0.3037396924116957</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7142552408737883</v>
+        <v>0.3038005837668062</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0002933638543211048</v>
+        <v>6.089135511044841e-05</v>
       </c>
     </row>
     <row r="28">
@@ -1095,22 +1095,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>安康市</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>怀化市</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8081552410757216</v>
+        <v>0.3268509590667911</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7743299648927418</v>
+        <v>0.3276214927648414</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03382527618297981</v>
+        <v>0.0007705336980502464</v>
       </c>
     </row>
     <row r="29">
@@ -1119,22 +1119,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>孝感市</t>
+          <t>宜昌市</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>钦州市</t>
+          <t>廊坊市</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.3037396924116957</v>
+        <v>0.5460965635744697</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3038005837668062</v>
+        <v>0.5456698756699716</v>
       </c>
       <c r="F29" t="n">
-        <v>6.089135511044841e-05</v>
+        <v>0.0004266879044980687</v>
       </c>
     </row>
     <row r="30">
@@ -1143,22 +1143,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>宁波市</t>
+          <t>宝鸡市</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>泸州市</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8135067974822948</v>
+        <v>0.3397121258099557</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7743299648927418</v>
+        <v>0.3396944877601816</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03917683258955307</v>
+        <v>1.763804977406025e-05</v>
       </c>
     </row>
     <row r="31">
@@ -1167,22 +1167,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>安康市</t>
+          <t>宣城市</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>滨州市</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.3268509590667911</v>
+        <v>0.3258670307896359</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3276214927648414</v>
+        <v>0.3237494359282243</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0007705336980502464</v>
+        <v>0.002117594861411554</v>
       </c>
     </row>
     <row r="32">
@@ -1191,22 +1191,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>宜昌市</t>
+          <t>常州市</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>南通市</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.5460965635744697</v>
+        <v>0.6470147858297163</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5456698756699716</v>
+        <v>0.6158377394040705</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0004266879044980687</v>
+        <v>0.03117704642564578</v>
       </c>
     </row>
     <row r="33">
@@ -1215,22 +1215,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>宝鸡市</t>
+          <t>广元市</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>泸州市</t>
+          <t>扬州市</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.3397121258099557</v>
+        <v>0.4843519102771636</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3396944877601816</v>
+        <v>0.4855739462706416</v>
       </c>
       <c r="F33" t="n">
-        <v>1.763804977406025e-05</v>
+        <v>0.001222035993477977</v>
       </c>
     </row>
     <row r="34">
@@ -1239,22 +1239,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>宣城市</t>
+          <t>延安市</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>毕节市</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.3258670307896359</v>
+        <v>0.2469867564981052</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3276214927648414</v>
+        <v>0.2470489491545993</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001754461975205512</v>
+        <v>6.219265649404226e-05</v>
       </c>
     </row>
     <row r="35">
@@ -1263,22 +1263,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>常州市</t>
+          <t>惠州市</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>唐山市</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6470147858297163</v>
+        <v>0.5026705326446514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6677516424083473</v>
+        <v>0.4987021429579389</v>
       </c>
       <c r="F35" t="n">
-        <v>0.020736856578631</v>
+        <v>0.003968389686712537</v>
       </c>
     </row>
     <row r="36">
@@ -1287,22 +1287,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>抚州市</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>扬州市</t>
+          <t>聊城市</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4843519102771636</v>
+        <v>0.3129673505490501</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4855739462706416</v>
+        <v>0.3141172381777269</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001222035993477977</v>
+        <v>0.001149887628676849</v>
       </c>
     </row>
     <row r="37">
@@ -1311,22 +1311,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>广州市</t>
+          <t>抚顺市</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太原市</t>
+          <t>宜春市</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8748606672010434</v>
+        <v>0.3635233716507856</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8639005613929084</v>
+        <v>0.3632941447274903</v>
       </c>
       <c r="F37" t="n">
-        <v>0.010960105808135</v>
+        <v>0.0002292269232953004</v>
       </c>
     </row>
     <row r="38">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>延安市</t>
+          <t>揭阳市</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>毕节市</t>
+          <t>德州市</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.2469867564981052</v>
+        <v>0.33037197352227</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2470489491545993</v>
+        <v>0.3294607551282184</v>
       </c>
       <c r="F38" t="n">
-        <v>6.219265649404226e-05</v>
+        <v>0.0009112183940515606</v>
       </c>
     </row>
     <row r="39">
@@ -1359,22 +1359,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>惠州市</t>
+          <t>晋城市</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>邢台市</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5026705326446514</v>
+        <v>0.4791286860491399</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4987021429579389</v>
+        <v>0.4772744139008011</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003968389686712537</v>
+        <v>0.001854272148338831</v>
       </c>
     </row>
     <row r="40">
@@ -1383,22 +1383,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>景德镇市</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太原市</t>
+          <t>梧州市</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8784030574537277</v>
+        <v>0.2399176628197406</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8639005613929084</v>
+        <v>0.2403776538365788</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01450249606081933</v>
+        <v>0.0004599910168382737</v>
       </c>
     </row>
     <row r="41">
@@ -1407,22 +1407,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>朝阳市</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>聊城市</t>
+          <t>信阳市</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.3129673505490501</v>
+        <v>0.3399392581635095</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3141172381777269</v>
+        <v>0.3400525437796569</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001149887628676849</v>
+        <v>0.0001132856161473739</v>
       </c>
     </row>
     <row r="42">
@@ -1431,22 +1431,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>抚顺市</t>
+          <t>本溪市</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>宜宾市</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.3635233716507856</v>
+        <v>0.3260832820377199</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3632941447274903</v>
+        <v>0.3280300239388236</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0002292269232953004</v>
+        <v>0.001946741901103666</v>
       </c>
     </row>
     <row r="43">
@@ -1455,22 +1455,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>揭阳市</t>
+          <t>柳州市</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>双鸭山市</t>
+          <t>临沂市</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.33037197352227</v>
+        <v>0.4493932555403046</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3311917137629729</v>
+        <v>0.4489063873749954</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0008197402407029153</v>
+        <v>0.0004868681653092399</v>
       </c>
     </row>
     <row r="44">
@@ -1479,22 +1479,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>昆明市</t>
+          <t>株洲市</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太原市</t>
+          <t>龙岩市</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8781076420233809</v>
+        <v>0.3374299510344461</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8639005613929084</v>
+        <v>0.3351371877415568</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01420708063047249</v>
+        <v>0.002292763292889355</v>
       </c>
     </row>
     <row r="45">
@@ -1503,22 +1503,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>晋城市</t>
+          <t>桂林市</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>晋中市</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.4791286860491399</v>
+        <v>0.4298561476127987</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4772744139008011</v>
+        <v>0.4335183300758816</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001854272148338831</v>
+        <v>0.003662182463082919</v>
       </c>
     </row>
     <row r="46">
@@ -1527,22 +1527,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>景德镇市</t>
+          <t>梅州市</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>梧州市</t>
+          <t>鹤岗市</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.2399176628197406</v>
+        <v>0.3832900452783042</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2403776538365788</v>
+        <v>0.3838571160573779</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0004599910168382737</v>
+        <v>0.0005670707790737528</v>
       </c>
     </row>
     <row r="47">
@@ -1551,22 +1551,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>榆林市</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>信阳市</t>
+          <t>四平市</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.3399392581635095</v>
+        <v>0.2750213824402036</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3400525437796569</v>
+        <v>0.2742650968555131</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0001132856161473739</v>
+        <v>0.0007562855846904859</v>
       </c>
     </row>
     <row r="48">
@@ -1575,22 +1575,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>本溪市</t>
+          <t>汉中市</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>济宁市</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.3260832820377199</v>
+        <v>0.4026831095775248</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3276214927648414</v>
+        <v>0.4017425739657093</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001538210727121458</v>
+        <v>0.0009405356118155073</v>
       </c>
     </row>
     <row r="49">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>杭州市</t>
+          <t>汕头市</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>太原市</t>
+          <t>泉州市</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8975097457084064</v>
+        <v>0.5150531468699896</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8639005613929084</v>
+        <v>0.5201683682547431</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03360918431549798</v>
+        <v>0.00511522138475351</v>
       </c>
     </row>
     <row r="50">
@@ -1623,22 +1623,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>柳州市</t>
+          <t>汕尾市</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>临沂市</t>
+          <t>松原市</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.4493932555403046</v>
+        <v>0.1799559814692968</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4489063873749954</v>
+        <v>0.1840523018362061</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0004868681653092399</v>
+        <v>0.004096320366909295</v>
       </c>
     </row>
     <row r="51">
@@ -1647,22 +1647,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>株洲市</t>
+          <t>江门市</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>张家口市</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.3374299510344461</v>
+        <v>0.5277352574825608</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3389492790713001</v>
+        <v>0.5070014074848035</v>
       </c>
       <c r="F51" t="n">
-        <v>0.001519328036853951</v>
+        <v>0.02073384999775729</v>
       </c>
     </row>
     <row r="52">
@@ -1671,22 +1671,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>桂林市</t>
+          <t>池州市</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>宿迁市</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.4298561476127987</v>
+        <v>0.2910784167309192</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4335183300758816</v>
+        <v>0.2911098242135156</v>
       </c>
       <c r="F52" t="n">
-        <v>0.003662182463082919</v>
+        <v>3.140748259639059e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1695,22 +1695,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>梅州市</t>
+          <t>河源市</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>鹤岗市</t>
+          <t>漳州市</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.3832900452783042</v>
+        <v>0.329600003508012</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3838571160573779</v>
+        <v>0.3321090442336372</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0005670707790737528</v>
+        <v>0.002509040725625244</v>
       </c>
     </row>
     <row r="54">
@@ -1719,22 +1719,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>榆林市</t>
+          <t>淮北市</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>四平市</t>
+          <t>乐山市</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.2750213824402036</v>
+        <v>0.3672560652568806</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2742650968555131</v>
+        <v>0.366584009227007</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0007562855846904859</v>
+        <v>0.0006720560298736356</v>
       </c>
     </row>
     <row r="55">
@@ -1743,22 +1743,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>武汉市</t>
+          <t>淮安市</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>马鞍山市</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.8114279781624812</v>
+        <v>0.3542476867401322</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7743299648927418</v>
+        <v>0.3537878994793068</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03709801326973949</v>
+        <v>0.0004597872608254061</v>
       </c>
     </row>
     <row r="56">
@@ -1767,22 +1767,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>汉中市</t>
+          <t>清远市</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>济宁市</t>
+          <t>通化市</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.4026831095775248</v>
+        <v>0.3153568070408306</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4017425739657093</v>
+        <v>0.315436339792919</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0009405356118155073</v>
+        <v>7.953275208844035e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1791,22 +1791,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>汕头市</t>
+          <t>渭南市</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>泉州市</t>
+          <t>上饶市</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.5150531468699896</v>
+        <v>0.3921747431597628</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5201683682547431</v>
+        <v>0.3903493816162321</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00511522138475351</v>
+        <v>0.00182536154353069</v>
       </c>
     </row>
     <row r="58">
@@ -1815,22 +1815,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>汕尾市</t>
+          <t>湘潭市</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>松原市</t>
+          <t>铜仁市</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.1799559814692968</v>
+        <v>0.3267721624614469</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1840523018362061</v>
+        <v>0.3336304269320843</v>
       </c>
       <c r="F58" t="n">
-        <v>0.004096320366909295</v>
+        <v>0.006858264470637421</v>
       </c>
     </row>
     <row r="59">
@@ -1839,22 +1839,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>江门市</t>
+          <t>湛江市</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>泉州市</t>
+          <t>连云港市</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.5277352574825608</v>
+        <v>0.430648498867271</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5201683682547431</v>
+        <v>0.4248917867563472</v>
       </c>
       <c r="F59" t="n">
-        <v>0.007566889227817675</v>
+        <v>0.005756712110923823</v>
       </c>
     </row>
     <row r="60">
@@ -1863,22 +1863,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>池州市</t>
+          <t>潍坊市</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>宿迁市</t>
+          <t>忻州市</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.2910784167309192</v>
+        <v>0.5306047781070196</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2911098242135156</v>
+        <v>0.5069388647930854</v>
       </c>
       <c r="F60" t="n">
-        <v>3.140748259639059e-05</v>
+        <v>0.02366591331393419</v>
       </c>
     </row>
     <row r="61">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>潮州市</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>长春市</t>
+          <t>百色市</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.7219014695617942</v>
+        <v>0.320899097998107</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7143904623122111</v>
+        <v>0.3192624724555599</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00751100724958309</v>
+        <v>0.001636625542547121</v>
       </c>
     </row>
     <row r="62">
@@ -1911,22 +1911,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>河源市</t>
+          <t>烟台市</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>泰州市</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.329600003508012</v>
+        <v>0.4948815884023485</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3294607551282184</v>
+        <v>0.4862525741015287</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0001392483797935662</v>
+        <v>0.008629014300819748</v>
       </c>
     </row>
     <row r="63">
@@ -1935,22 +1935,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>盘锦市</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>定西市</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.8118768018024923</v>
+        <v>0.352757536527338</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7743299648927418</v>
+        <v>0.3510342698904575</v>
       </c>
       <c r="F63" t="n">
-        <v>0.03754683690975058</v>
+        <v>0.001723266636880494</v>
       </c>
     </row>
     <row r="64">
@@ -1959,22 +1959,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>海口市</t>
+          <t>秦皇岛市</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>太原市</t>
+          <t>德阳市</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.8364825417733057</v>
+        <v>0.5159434152330937</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8639005613929084</v>
+        <v>0.4741844135783211</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02741801961960266</v>
+        <v>0.04175900165477264</v>
       </c>
     </row>
     <row r="65">
@@ -1983,22 +1983,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>肇庆市</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>乐山市</t>
+          <t>日照市</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.3672560652568806</v>
+        <v>0.4021921132568441</v>
       </c>
       <c r="E65" t="n">
-        <v>0.366584009227007</v>
+        <v>0.3991189583751535</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0006720560298736356</v>
+        <v>0.003073154881690521</v>
       </c>
     </row>
     <row r="66">
@@ -2007,22 +2007,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>淮安市</t>
+          <t>茂名市</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>枣庄市</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.3542476867401322</v>
+        <v>0.2460955507485009</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3537878994793068</v>
+        <v>0.2465444917400497</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0004597872608254061</v>
+        <v>0.0004489409915488241</v>
       </c>
     </row>
     <row r="67">
@@ -2031,22 +2031,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>深圳市</t>
+          <t>荆州市</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>太原市</t>
+          <t>邯郸市</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.857449414150884</v>
+        <v>0.4013357291342431</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8639005613929084</v>
+        <v>0.3979364407149237</v>
       </c>
       <c r="F67" t="n">
-        <v>0.006451147242024335</v>
+        <v>0.003399288419319413</v>
       </c>
     </row>
     <row r="68">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>清远市</t>
+          <t>荆门市</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>贵港市</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.3153568070408306</v>
+        <v>0.278900282285638</v>
       </c>
       <c r="E68" t="n">
-        <v>0.315436339792919</v>
+        <v>0.2763766999444174</v>
       </c>
       <c r="F68" t="n">
-        <v>7.953275208844035e-05</v>
+        <v>0.002523582341220576</v>
       </c>
     </row>
     <row r="69">
@@ -2079,22 +2079,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>温州市</t>
+          <t>衢州市</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>淄博市</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.8019459246980869</v>
+        <v>0.4520364374802816</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7743299648927418</v>
+        <v>0.4502341272652252</v>
       </c>
       <c r="F69" t="n">
-        <v>0.02761595980534515</v>
+        <v>0.001802310215056391</v>
       </c>
     </row>
     <row r="70">
@@ -2103,22 +2103,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>渭南市</t>
+          <t>赣州市</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>运城市</t>
+          <t>阜阳市</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.3921747431597628</v>
+        <v>0.4420149492588394</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3904990849791883</v>
+        <v>0.4457270232205958</v>
       </c>
       <c r="F70" t="n">
-        <v>0.001675658180574469</v>
+        <v>0.003712073961756379</v>
       </c>
     </row>
     <row r="71">
@@ -2127,22 +2127,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>湘潭市</t>
+          <t>辽阳市</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>怀化市</t>
+          <t>佳木斯市</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.3267721624614469</v>
+        <v>0.3941327138121095</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3276214927648414</v>
+        <v>0.396800806418016</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0008493303033945132</v>
+        <v>0.002668092605906447</v>
       </c>
     </row>
     <row r="72">
@@ -2151,22 +2151,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>湛江市</t>
+          <t>遵义市</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>安顺市</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.430648498867271</v>
+        <v>0.3834275604013089</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4335183300758816</v>
+        <v>0.3802933257230313</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002869831208610563</v>
+        <v>0.003134234678277559</v>
       </c>
     </row>
     <row r="73">
@@ -2175,22 +2175,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>潍坊市</t>
+          <t>郴州市</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>泉州市</t>
+          <t>安阳市</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.5306047781070196</v>
+        <v>0.2891688557201928</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5201683682547431</v>
+        <v>0.2893165458126807</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01043640985227645</v>
+        <v>0.0001476900924878843</v>
       </c>
     </row>
     <row r="74">
@@ -2199,22 +2199,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>潮州市</t>
+          <t>鄂州市</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>百色市</t>
+          <t>崇左市</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.320899097998107</v>
+        <v>0.1404485015168029</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3192624724555599</v>
+        <v>0.1684682275861899</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001636625542547121</v>
+        <v>0.02801972606938699</v>
       </c>
     </row>
     <row r="75">
@@ -2223,22 +2223,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>烟台市</t>
+          <t>金昌市</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>焦作市</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.4948815884023485</v>
+        <v>0.224303895177954</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4987021429579389</v>
+        <v>0.2242227129884232</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003820554555590439</v>
+        <v>8.118218953087619e-05</v>
       </c>
     </row>
     <row r="76">
@@ -2247,22 +2247,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>珠海市</t>
+          <t>镇江市</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>阳泉市</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.6577227537898388</v>
+        <v>0.4919685540419672</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6677516424083473</v>
+        <v>0.4658919210075554</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01002888861850848</v>
+        <v>0.02607663303441177</v>
       </c>
     </row>
     <row r="77">
@@ -2271,22 +2271,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>阜新市</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>徐州市</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.352757536527338</v>
+        <v>0.4273639625445712</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3537878994793068</v>
+        <v>0.422802031762087</v>
       </c>
       <c r="F77" t="n">
-        <v>0.001030362951968788</v>
+        <v>0.00456193078248418</v>
       </c>
     </row>
     <row r="78">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>石家庄市</t>
+          <t>阳江市</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>白银市</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.7026628682023933</v>
+        <v>0.2707009517097939</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7142552408737883</v>
+        <v>0.2707613512914639</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01159237267139501</v>
+        <v>6.039958166997872e-05</v>
       </c>
     </row>
     <row r="79">
@@ -2319,22 +2319,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>随州市</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>泉州市</t>
+          <t>朔州市</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.5159434152330937</v>
+        <v>0.2447124062169924</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5201683682547431</v>
+        <v>0.2466616730871689</v>
       </c>
       <c r="F79" t="n">
-        <v>0.00422495302164938</v>
+        <v>0.001949266870176575</v>
       </c>
     </row>
     <row r="80">
@@ -2343,22 +2343,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>肇庆市</t>
+          <t>鞍山市</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>济宁市</t>
+          <t>芜湖市</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.4021921132568441</v>
+        <v>0.4577324472993554</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4017425739657093</v>
+        <v>0.4582870652784278</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0004495392911347817</v>
+        <v>0.0005546179790724137</v>
       </c>
     </row>
     <row r="81">
@@ -2367,22 +2367,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>苏州市</t>
+          <t>韶关市</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>绍兴市</t>
+          <t>安庆市</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.7436322675384714</v>
+        <v>0.4013618096010885</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7325171811805359</v>
+        <v>0.3968271433568183</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01111508635793557</v>
+        <v>0.00453466624427018</v>
       </c>
     </row>
     <row r="82">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>茂名市</t>
+          <t>黄冈市</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>枣庄市</t>
+          <t>伊春市</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.2460955507485009</v>
+        <v>0.3344647763866768</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2465444917400497</v>
+        <v>0.3404108448933624</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0004489409915488241</v>
+        <v>0.005946068506685609</v>
       </c>
     </row>
     <row r="83">
@@ -2415,22 +2415,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>荆州市</t>
+          <t>黄山市</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>济宁市</t>
+          <t>齐齐哈尔市</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.4013357291342431</v>
+        <v>0.3680159418097864</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4017425739657093</v>
+        <v>0.3714802340299866</v>
       </c>
       <c r="F83" t="n">
-        <v>0.000406844831466191</v>
+        <v>0.003464292220200227</v>
       </c>
     </row>
     <row r="84">
@@ -2439,597 +2439,21 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>荆门市</t>
+          <t>黄石市</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>铜陵市</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.278900282285638</v>
+        <v>0.3480392141857491</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2801259970639683</v>
+        <v>0.348200921412003</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001225714778330333</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>衢州市</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>淄博市</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0.4520364374802816</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.4502341272652252</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.001802310215056391</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>西宁市</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>绍兴市</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>0.7384585097506955</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.7325171811805359</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.00594132857015961</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>西安市</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>太原市</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>0.8249269034397498</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.8639005613929084</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.03897365795315855</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>贵阳市</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>南宁市</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0.7692704174930409</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.7692416061015648</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2.881139147614675e-05</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>赣州市</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>阜阳市</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0.4420149492588394</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.4457270232205958</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.003712073961756379</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>辽阳市</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>邵阳市</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0.3941327138121095</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.395495629504684</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.001362915692574462</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>遵义市</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>鹤岗市</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0.3834275604013089</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.3838571160573779</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.0004295556560690583</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>郴州市</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>安阳市</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0.2891688557201928</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.2893165458126807</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.0001476900924878843</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>鄂州市</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>崇左市</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0.1404485015168029</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.1684682275861899</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.02801972606938699</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>重庆市</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>福州市</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0.7958806028525518</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.7743299648927418</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.02155063795981005</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>金华市</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0.7129322567887731</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.7142552408737883</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.001322984085015189</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>金昌市</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>焦作市</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0.224303895177954</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.2242227129884232</v>
-      </c>
-      <c r="F96" t="n">
-        <v>8.118218953087619e-05</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>银川市</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>哈尔滨市</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0.6790626936790332</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.6788557948544641</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.0002068988245690351</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>镇江市</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0.4919685540419672</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.4862525741015287</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.005715979940438431</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>长沙市</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>长春市</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0.7148452208235306</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.7143904623122111</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.0004547585113194863</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>阜新市</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>连云港市</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>0.4273639625445712</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.4248917867563472</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.002472175788224007</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>阳江市</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>白银市</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>0.2707009517097939</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.2707613512914639</v>
-      </c>
-      <c r="F101" t="n">
-        <v>6.039958166997872e-05</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>随州市</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>枣庄市</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>0.2447124062169924</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.2465444917400497</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.001832085523057359</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>青岛市</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>哈尔滨市</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>0.6895928665154396</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.6788557948544641</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.01073707166097548</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>鞍山市</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>芜湖市</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>0.4577324472993554</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.4582870652784278</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.0005546179790724137</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>韶关市</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>济宁市</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>0.4013618096010885</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.4017425739657093</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.0003807643646207559</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>黄冈市</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>龙岩市</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>0.3344647763866768</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.3351371877415568</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.0006724113548799426</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>黄山市</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>乐山市</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>0.3680159418097864</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.366584009227007</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.001431932582779405</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>黄石市</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>铜陵市</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>0.3480392141857491</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.348200921412003</v>
-      </c>
-      <c r="F108" t="n">
         <v>0.0001617072262538599</v>
       </c>
     </row>
